--- a/TalentStackTemplate.xlsx
+++ b/TalentStackTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36380" windowHeight="17960" tabRatio="500"/>
+    <workbookView xWindow="18580" yWindow="40" windowWidth="26500" windowHeight="17960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Talent Stack" sheetId="4" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Microsoft Office</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
     <t>Linux OS</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>Copyright © 2018 Phil Rankin</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>IA</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sales</c:v>
+                  <c:v>Network Security</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,7 +872,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1994.0</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +884,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,7 +896,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>6.3375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,7 +1496,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,65 +1660,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Android</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Talent Stack'!$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Talent Stack'!$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Talent Stack'!$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.351471862576143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Talent Stack'!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ansible</c:v>
+                  <c:v>IA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1741,36 +1683,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2016.0</c:v>
+              <c:f>'Talent Stack'!$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2010.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20.0</c:v>
+              <c:f>'Talent Stack'!$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'Talent Stack'!$I$30</c:f>
+              <c:f>'Talent Stack'!$I$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.351471862576143</c:v>
+                  <c:v>4.800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,15 +1720,15 @@
           <c:bubble3D val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
+          <c:idx val="17"/>
+          <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Talent Stack'!$A$31</c:f>
+              <c:f>'Talent Stack'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Linux OS</c:v>
+                  <c:v>Ansible</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1809,36 +1751,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000.0</c:v>
+              <c:f>'Talent Stack'!$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35.0</c:v>
+              <c:f>'Talent Stack'!$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'Talent Stack'!$I$31</c:f>
+              <c:f>'Talent Stack'!$I$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.90337865337385</c:v>
+                  <c:v>0.351471862576143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,15 +1788,15 @@
           <c:bubble3D val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
+          <c:idx val="18"/>
+          <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Talent Stack'!$A$32</c:f>
+              <c:f>'Talent Stack'!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Windows OS</c:v>
+                  <c:v>Linux OS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1877,36 +1819,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1988.0</c:v>
+              <c:f>'Talent Stack'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$E$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>18.0</c:v>
+              <c:f>'Talent Stack'!$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'Talent Stack'!$I$32</c:f>
+              <c:f>'Talent Stack'!$I$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.40884951648767</c:v>
+                  <c:v>12.90337865337385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,15 +1856,15 @@
           <c:bubble3D val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
+          <c:idx val="19"/>
+          <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Talent Stack'!$A$33</c:f>
+              <c:f>'Talent Stack'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Zigbee</c:v>
+                  <c:v>Windows OS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1945,36 +1887,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2013.0</c:v>
+              <c:f>'Talent Stack'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1988.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35.0</c:v>
+              <c:f>'Talent Stack'!$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'Talent Stack'!$I$33</c:f>
+              <c:f>'Talent Stack'!$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.810792884997279</c:v>
+                  <c:v>16.40884951648767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,15 +1924,15 @@
           <c:bubble3D val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
+          <c:idx val="20"/>
+          <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Talent Stack'!$A$34</c:f>
+              <c:f>'Talent Stack'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lab Equipment</c:v>
+                  <c:v>Zigbee</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2013,36 +1955,36 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1994.0</c:v>
+              <c:f>'Talent Stack'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Talent Stack'!$E$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.0</c:v>
+              <c:f>'Talent Stack'!$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'Talent Stack'!$I$34</c:f>
+              <c:f>'Talent Stack'!$I$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18.6</c:v>
+                  <c:v>0.810792884997279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,15 +1992,15 @@
           <c:bubble3D val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
+          <c:idx val="21"/>
+          <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Talent Stack'!$A$35</c:f>
+              <c:f>'Talent Stack'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other 2</c:v>
+                  <c:v>Lab Equipment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2081,6 +2023,74 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
+              <c:f>'Talent Stack'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Talent Stack'!$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Talent Stack'!$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Talent Stack'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
               <c:f>'Talent Stack'!$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2127,11 +2137,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="-2016271848"/>
-        <c:axId val="-2021279016"/>
+        <c:axId val="-1990819496"/>
+        <c:axId val="2079180184"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="-2016271848"/>
+        <c:axId val="-1990819496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2020.0"/>
@@ -2143,12 +2153,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2021279016"/>
+        <c:crossAx val="2079180184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2021279016"/>
+        <c:axId val="2079180184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2016271848"/>
+        <c:crossAx val="-1990819496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2694,7 +2704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2721,44 +2733,44 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -2766,10 +2778,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -2778,7 +2790,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -2796,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>6</v>
@@ -2880,7 +2892,7 @@
     </row>
     <row r="15" spans="1:9" ht="16">
       <c r="A15" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="11">
         <v>1990</v>
@@ -2940,37 +2952,37 @@
     </row>
     <row r="17" spans="1:9" ht="16">
       <c r="A17" s="14" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B17" s="11">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="C17" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="12">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="E17" s="10">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>19.200000000000003</v>
+        <v>8.4500000000000011</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6.3375000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16">
       <c r="A18" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11">
         <v>1994</v>
@@ -3000,7 +3012,7 @@
     </row>
     <row r="19" spans="1:9" ht="16">
       <c r="A19" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11">
         <v>1993</v>
@@ -3030,7 +3042,7 @@
     </row>
     <row r="20" spans="1:9" ht="16">
       <c r="A20" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="11">
         <v>2017</v>
@@ -3060,7 +3072,7 @@
     </row>
     <row r="21" spans="1:9" ht="16">
       <c r="A21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="11">
         <v>1999</v>
@@ -3180,7 +3192,7 @@
     </row>
     <row r="25" spans="1:9" ht="16">
       <c r="A25" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="11">
         <v>1997</v>
@@ -3222,7 +3234,7 @@
         <v>0.75</v>
       </c>
       <c r="E26" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="6">
@@ -3240,7 +3252,7 @@
     </row>
     <row r="27" spans="1:9" ht="16">
       <c r="A27" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="11">
         <v>2017</v>
@@ -3270,7 +3282,7 @@
     </row>
     <row r="28" spans="1:9" ht="16">
       <c r="A28" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="11">
         <v>2008</v>
@@ -3300,32 +3312,32 @@
     </row>
     <row r="29" spans="1:9" ht="16">
       <c r="A29" s="14" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B29" s="11">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C29" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12">
         <v>0.8</v>
       </c>
       <c r="E29" s="10">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6000000000000014</v>
+        <v>6.4</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16">
@@ -3360,7 +3372,7 @@
     </row>
     <row r="31" spans="1:9" ht="16">
       <c r="A31" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="11">
         <v>2000</v>
@@ -3390,7 +3402,7 @@
     </row>
     <row r="32" spans="1:9" ht="16">
       <c r="A32" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="11">
         <v>1988</v>
@@ -3450,7 +3462,7 @@
     </row>
     <row r="34" spans="1:9" ht="16">
       <c r="A34" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="11">
         <v>1994</v>
@@ -3480,7 +3492,7 @@
     </row>
     <row r="35" spans="1:9" ht="16">
       <c r="A35" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="11">
         <v>2012</v>
@@ -3510,7 +3522,7 @@
     </row>
     <row r="37" spans="1:9" ht="16">
       <c r="A37" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3537,62 +3549,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3617,12 +3629,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17">
       <c r="A1" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17">
       <c r="A3" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17">
@@ -3632,77 +3644,77 @@
     </row>
     <row r="6" spans="1:1" ht="17">
       <c r="A6" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17">
       <c r="A7" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17">
       <c r="A8" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17">
       <c r="A9" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17">
       <c r="A10" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17">
       <c r="A11" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17">
       <c r="A13" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17">
       <c r="A14" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17">
       <c r="A16" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17">
       <c r="A17" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17">
       <c r="A18" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17">
       <c r="A19" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17">
       <c r="A20" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17">
       <c r="A21" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17">
       <c r="A22" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
